--- a/data/Max_vel_rolling_win.xlsx
+++ b/data/Max_vel_rolling_win.xlsx
@@ -477,36 +477,36 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.994263862332868</v>
+        <v>1.032504780114785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9714285714286097</v>
+        <v>1.02857142857136</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9831050103108815</v>
+        <v>1.030732895321225</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.032504780114785</v>
+        <v>1.316793893129771</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02857142857136</v>
+        <v>0.8761904761905157</v>
       </c>
       <c r="D4" t="n">
-        <v>1.030732895321225</v>
+        <v>0.9941924820663282</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -528,36 +528,36 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.316793893129771</v>
+        <v>1.48854961832061</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8761904761905157</v>
+        <v>0.2095238095238175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9941924820663282</v>
+        <v>0.8386683132085625</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.48854961832061</v>
+        <v>0.994263862332868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2095238095238175</v>
+        <v>0.9714285714286097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8386683132085625</v>
+        <v>0.9831050103108815</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -579,223 +579,223 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.771428571429549</v>
+        <v>3.778625954199287</v>
       </c>
       <c r="C9" t="n">
-        <v>1.026615969581619</v>
+        <v>0.1904761904761602</v>
       </c>
       <c r="D9" t="n">
-        <v>1.539123348388735</v>
+        <v>1.092172975609332</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.778625954199287</v>
+        <v>5.419847328243089</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1904761904761602</v>
+        <v>0.07633587786261362</v>
       </c>
       <c r="D10" t="n">
-        <v>1.092172975609332</v>
+        <v>1.600190863616393</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.53333333333255</v>
+        <v>4.847328244273751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1142857142856988</v>
+        <v>0.2851711026615578</v>
       </c>
       <c r="D11" t="n">
-        <v>1.833719310170332</v>
+        <v>1.341955299275055</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.780952380955694</v>
+        <v>3.771428571429549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09541984732826617</v>
+        <v>1.026615969581619</v>
       </c>
       <c r="D12" t="n">
-        <v>1.915448977510558</v>
+        <v>1.539123348388735</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.838095238094398</v>
+        <v>5.01908396946455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01901140684409541</v>
+        <v>0.1520912547528324</v>
       </c>
       <c r="D13" t="n">
-        <v>1.995812102393927</v>
+        <v>1.699871239943918</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.847328244273751</v>
+        <v>4.53333333333255</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2851711026615578</v>
+        <v>0.1142857142856988</v>
       </c>
       <c r="D14" t="n">
-        <v>1.341955299275055</v>
+        <v>1.833719310170332</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.01908396946455</v>
+        <v>5.687022900764584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1520912547528324</v>
+        <v>0.03816793893128855</v>
       </c>
       <c r="D15" t="n">
-        <v>1.699871239943918</v>
+        <v>2.313961830620106</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.419847328243089</v>
+        <v>5.763358778627194</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07633587786261362</v>
+        <v>0.1335877862595133</v>
       </c>
       <c r="D16" t="n">
-        <v>1.600190863616393</v>
+        <v>2.131166754432855</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.61068702290197</v>
+        <v>4.780952380955694</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01904761904761534</v>
+        <v>0.09541984732826617</v>
       </c>
       <c r="D17" t="n">
-        <v>2.192534156372292</v>
+        <v>1.915448977510558</v>
       </c>
       <c r="E17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.687022900764584</v>
+        <v>4.838095238094398</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03816793893128855</v>
+        <v>0.01901140684409541</v>
       </c>
       <c r="D18" t="n">
-        <v>2.313961830620106</v>
+        <v>1.995812102393927</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.763358778627194</v>
+        <v>5.61068702290197</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1335877862595133</v>
+        <v>0.01904761904761534</v>
       </c>
       <c r="D19" t="n">
-        <v>2.131166754432855</v>
+        <v>2.192534156372292</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.736641221375494</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.114285714285692</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.802172488175677</v>
+      </c>
+      <c r="E20" t="n">
         <v>19</v>
-      </c>
-      <c r="B20" t="n">
-        <v>6.488549618322008</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.4007633587787138</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.407130711937474</v>
-      </c>
-      <c r="E20" t="n">
-        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.736641221375494</v>
+        <v>6.488549618322008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.114285714285692</v>
+        <v>0.4007633587787138</v>
       </c>
       <c r="D21" t="n">
-        <v>2.802172488175677</v>
+        <v>3.407130711937474</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -1079,19 +1079,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9751434034418484</v>
+        <v>1.0707456978967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809936</v>
+        <v>1.066666666666714</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9645716488980535</v>
+        <v>1.069111750081482</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1113,138 +1113,138 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.051625239005917</v>
+        <v>1.147227533460748</v>
       </c>
       <c r="C4" t="n">
-        <v>1.047619047619094</v>
+        <v>1.009523809523633</v>
       </c>
       <c r="D4" t="n">
-        <v>1.050021233370392</v>
+        <v>1.03440796925077</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0707456978967</v>
+        <v>1.051625239005917</v>
       </c>
       <c r="C5" t="n">
-        <v>1.066666666666714</v>
+        <v>1.047619047619094</v>
       </c>
       <c r="D5" t="n">
-        <v>1.069111750081482</v>
+        <v>1.050021233370392</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9751434034418484</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9523809523809936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9645716488980535</v>
+      </c>
+      <c r="E6" t="n">
         <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.108986615678965</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9714285714284028</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.054194000721428</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.147227533460748</v>
+        <v>2.543021032505214</v>
       </c>
       <c r="C7" t="n">
-        <v>1.009523809523633</v>
+        <v>0.3238095238095377</v>
       </c>
       <c r="D7" t="n">
-        <v>1.03440796925077</v>
+        <v>1.114944240472264</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.164122137404831</v>
+        <v>1.108986615678965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9523809523807873</v>
+        <v>0.9714285714284028</v>
       </c>
       <c r="D8" t="n">
-        <v>1.070997485950635</v>
+        <v>1.054194000721428</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.434034416826248</v>
+        <v>1.164122137404831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9904761904764471</v>
+        <v>0.9523809523807873</v>
       </c>
       <c r="D9" t="n">
-        <v>1.086880619989793</v>
+        <v>1.070997485950635</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.232824427481396</v>
+        <v>1.434034416826248</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1904761904761585</v>
+        <v>0.9904761904764471</v>
       </c>
       <c r="D10" t="n">
-        <v>1.424104697720942</v>
+        <v>1.086880619989793</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.543021032505214</v>
+        <v>2.232824427481396</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3238095238095377</v>
+        <v>0.1904761904761585</v>
       </c>
       <c r="D11" t="n">
-        <v>1.114944240472264</v>
+        <v>1.424104697720942</v>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1266,138 +1266,138 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.225190839695351</v>
+        <v>3.511450381680145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05725190839696106</v>
+        <v>0.5714285714287196</v>
       </c>
       <c r="D13" t="n">
-        <v>1.381682274266786</v>
+        <v>1.486278945176572</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.225190839695351</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05725190839696106</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.381682274266786</v>
+      </c>
+      <c r="E14" t="n">
         <v>14</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.454198473283185</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.914285714286347</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.733931515525733</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.511450381680145</v>
+        <v>3.587786259542758</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5714285714287196</v>
+        <v>0.190476190476241</v>
       </c>
       <c r="D15" t="n">
-        <v>1.486278945176572</v>
+        <v>1.554745398179067</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.587786259542758</v>
+        <v>3.454198473283185</v>
       </c>
       <c r="C16" t="n">
-        <v>0.190476190476241</v>
+        <v>0.914285714286347</v>
       </c>
       <c r="D16" t="n">
-        <v>1.554745398179067</v>
+        <v>1.733931515525733</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.12213740458104</v>
+        <v>4.179389312978001</v>
       </c>
       <c r="C17" t="n">
-        <v>1.045627376426173</v>
+        <v>0.07619047619046306</v>
       </c>
       <c r="D17" t="n">
-        <v>2.63852219530391</v>
+        <v>1.909952744456629</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.179389312978001</v>
+        <v>4.580152671756712</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07619047619046306</v>
+        <v>0.3428571428573799</v>
       </c>
       <c r="D18" t="n">
-        <v>1.909952744456629</v>
+        <v>2.190879736081786</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.580152671756712</v>
+        <v>5.591603053431465</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3428571428573799</v>
+        <v>0.01904761904763353</v>
       </c>
       <c r="D19" t="n">
-        <v>2.190879736081786</v>
+        <v>2.472966248965313</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5.591603053431465</v>
+        <v>4.12213740458104</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01904761904763353</v>
+        <v>1.045627376426173</v>
       </c>
       <c r="D20" t="n">
-        <v>2.472966248965313</v>
+        <v>2.63852219530391</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1762,12 +1762,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_x_max</t>
+          <t>Velocity_x_min</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_x_min</t>
+          <t>Velocity_x_max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1783,614 +1783,614 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-4.590476190471419</v>
+        <v>-0.9942638623327025</v>
       </c>
       <c r="C2" t="n">
-        <v>-40.11450381676771</v>
+        <v>-0.990476190476179</v>
       </c>
       <c r="D2" t="n">
-        <v>-22.61667359833324</v>
+        <v>-0.9925576029019101</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.076190476189771</v>
+        <v>-1.166347992351887</v>
       </c>
       <c r="C3" t="n">
-        <v>-36.04961832061844</v>
+        <v>-0.190476190476198</v>
       </c>
       <c r="D3" t="n">
-        <v>-20.07461468829142</v>
+        <v>-0.8721019021068758</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.885714285713611</v>
+        <v>-1.089866156787831</v>
       </c>
       <c r="C4" t="n">
-        <v>-30.51526717557908</v>
+        <v>-0.01904761904761947</v>
       </c>
       <c r="D4" t="n">
-        <v>-16.0117249427239</v>
+        <v>-0.7482930594332864</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.809523809526449</v>
+        <v>-1.032504780114676</v>
       </c>
       <c r="C5" t="n">
-        <v>-38.35877862599575</v>
+        <v>-0.9732824427480895</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.59284212354656</v>
+        <v>-1.002286813138696</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.676190476186655</v>
+        <v>-1.108986615678724</v>
       </c>
       <c r="C6" t="n">
-        <v>-45.24809160302391</v>
+        <v>-0.9904761904762326</v>
       </c>
       <c r="D6" t="n">
-        <v>-26.09359335125972</v>
+        <v>-1.049914649496472</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.504761904761297</v>
+        <v>-1.128107074569982</v>
       </c>
       <c r="C7" t="n">
-        <v>-34.1984732824501</v>
+        <v>-0.9732824427480895</v>
       </c>
       <c r="D7" t="n">
-        <v>-18.44458608500682</v>
+        <v>-1.065458633721104</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.466666666666067</v>
+        <v>-1.108986615678965</v>
       </c>
       <c r="C8" t="n">
-        <v>-20.82061068702738</v>
+        <v>-0.9714285714284028</v>
       </c>
       <c r="D8" t="n">
-        <v>-10.67155302522469</v>
+        <v>-1.051096519261675</v>
       </c>
       <c r="E8" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.447619047615462</v>
+        <v>-0.9923664122139533</v>
       </c>
       <c r="C9" t="n">
-        <v>-41.75238095240989</v>
+        <v>-0.9523809523807873</v>
       </c>
       <c r="D9" t="n">
-        <v>-23.83111657979833</v>
+        <v>-0.9725399221115153</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.971428571428061</v>
+        <v>-1.16412213740483</v>
       </c>
       <c r="C10" t="n">
-        <v>-26.18320610685313</v>
+        <v>-0.9714285714288269</v>
       </c>
       <c r="D10" t="n">
-        <v>-13.59750289716494</v>
+        <v>-1.074232400339288</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.55238095238051</v>
+        <v>-2.076190476190116</v>
       </c>
       <c r="C11" t="n">
-        <v>-16.96564885496548</v>
+        <v>-0.9523809523807873</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.844860532965928</v>
+        <v>-1.051791536572232</v>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.514285714285279</v>
+        <v>-1.374045801527014</v>
       </c>
       <c r="C12" t="n">
-        <v>-18.28897338403599</v>
+        <v>-1.009523809523633</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.154976859748473</v>
+        <v>-1.171241076916405</v>
       </c>
       <c r="E12" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.304761904763503</v>
+        <v>-2.442748091603578</v>
       </c>
       <c r="C13" t="n">
-        <v>-24.26666666666247</v>
+        <v>-1.083650190114399</v>
       </c>
       <c r="D13" t="n">
-        <v>-12.07831757457453</v>
+        <v>-1.368995101762122</v>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.171428571428196</v>
+        <v>-3.94285714285646</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.75238095237857</v>
+        <v>-0.2095238095238629</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.420030353583356</v>
+        <v>-1.427988366861006</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.129277566538733</v>
+        <v>-2.404580152672276</v>
       </c>
       <c r="C15" t="n">
-        <v>-15.03816793893454</v>
+        <v>-0.9714285714284028</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.543559006646225</v>
+        <v>-1.453807376657982</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.847619047618725</v>
+        <v>-3.225190839693953</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.900763358780328</v>
+        <v>-0.9505703422052015</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.764531740314694</v>
+        <v>-1.602962680829822</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.14503816793918</v>
+        <v>-3.091603053433095</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.412213740459395</v>
+        <v>-0.7428571428576587</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.164673632175757</v>
+        <v>-1.661732487077744</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.085714285714098</v>
+        <v>-3.034351145038821</v>
       </c>
       <c r="C18" t="n">
-        <v>-10.36190476191194</v>
+        <v>-0.9695817490497243</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.499422391061787</v>
+        <v>-1.965857709662284</v>
       </c>
       <c r="E18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.083650190114399</v>
+        <v>-3.904761904764612</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.442748091603578</v>
+        <v>-0.9695817490488827</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.368995101762122</v>
+        <v>-2.189328251897647</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.009523809523633</v>
+        <v>-4.895238095237247</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.374045801527014</v>
+        <v>-0.9714285714284061</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.171241076916405</v>
+        <v>-2.649917115266915</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9904761904762326</v>
+        <v>-6.412213740459395</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.108986615678724</v>
+        <v>-1.14503816793918</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.049914649496472</v>
+        <v>-3.164673632175757</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.990476190476179</v>
+        <v>-7.900763358780328</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9942638623327025</v>
+        <v>-1.847619047618725</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9925576029019101</v>
+        <v>-3.764531740314694</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-10.36190476191194</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.128107074569982</v>
+        <v>-1.085714285714098</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.065458633721104</v>
+        <v>-4.499422391061787</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-13.75238095237857</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.032504780114676</v>
+        <v>-2.171428571428196</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.002286813138696</v>
+        <v>-5.420030353583356</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9714285714288269</v>
+        <v>-15.03816793893454</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.16412213740483</v>
+        <v>-2.129277566538733</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.074232400339288</v>
+        <v>-6.543559006646225</v>
       </c>
       <c r="E25" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9714285714284061</v>
+        <v>-16.96564885496548</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.895238095237247</v>
+        <v>-2.55238095238051</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.649917115266915</v>
+        <v>-7.844860532965928</v>
       </c>
       <c r="E26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-18.28897338403599</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.404580152672276</v>
+        <v>-2.514285714285279</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.453807376657982</v>
+        <v>-9.154976859748473</v>
       </c>
       <c r="E27" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-20.82061068702738</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.108986615678965</v>
+        <v>-3.466666666666067</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.051096519261675</v>
+        <v>-10.67155302522469</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.9695817490497243</v>
+        <v>-24.26666666666247</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.034351145038821</v>
+        <v>-2.304761904763503</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.965857709662284</v>
+        <v>-12.07831757457453</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.9695817490488827</v>
+        <v>-26.18320610685313</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.904761904764612</v>
+        <v>-2.971428571428061</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.189328251897647</v>
+        <v>-13.59750289716494</v>
       </c>
       <c r="E30" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-30.51526717557908</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.076190476190116</v>
+        <v>-3.885714285713611</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.051791536572232</v>
+        <v>-16.0117249427239</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-34.1984732824501</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9923664122139533</v>
+        <v>-3.504761904761297</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.9725399221115153</v>
+        <v>-18.44458608500682</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.9505703422052015</v>
+        <v>-36.04961832061844</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.225190839693953</v>
+        <v>-4.076190476189771</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.602962680829822</v>
+        <v>-20.07461468829142</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.7428571428576587</v>
+        <v>-38.35877862599575</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.091603053433095</v>
+        <v>-3.809523809526449</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.661732487077744</v>
+        <v>-21.59284212354656</v>
       </c>
       <c r="E34" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2095238095238629</v>
+        <v>-40.11450381676771</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.94285714285646</v>
+        <v>-4.590476190471419</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.427988366861006</v>
+        <v>-22.61667359833324</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.190476190476198</v>
+        <v>-41.75238095240989</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.166347992351887</v>
+        <v>-3.447619047615462</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.8721019021068758</v>
+        <v>-23.83111657979833</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.01904761904761947</v>
+        <v>-45.24809160302391</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.089866156787831</v>
+        <v>-3.676190476186655</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.7482930594332864</v>
+        <v>-26.09359335125972</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2415,12 +2415,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_y_max</t>
+          <t>Velocity_y_min</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Velocity_y_min</t>
+          <t>Velocity_y_max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -2436,461 +2436,461 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.801526717558499</v>
+        <v>-1.01145038167939</v>
       </c>
       <c r="C2" t="n">
-        <v>-34.16030534351881</v>
+        <v>-0.9523809523809936</v>
       </c>
       <c r="D2" t="n">
-        <v>-19.15131276567346</v>
+        <v>-0.9704273313838568</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.458015267176746</v>
+        <v>-1.032504780114897</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.15267175573382</v>
+        <v>-1.028571428571472</v>
       </c>
       <c r="D3" t="n">
-        <v>-23.66749440151495</v>
+        <v>-1.030929187578592</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.267175572520213</v>
+        <v>-1.089866156787949</v>
       </c>
       <c r="C4" t="n">
-        <v>-36.62857142856509</v>
+        <v>-1.028571428571252</v>
       </c>
       <c r="D4" t="n">
-        <v>-21.36224756113174</v>
+        <v>-1.059162244495819</v>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.980916030535422</v>
+        <v>-1.108986615678965</v>
       </c>
       <c r="C5" t="n">
-        <v>-30.07633587786908</v>
+        <v>-1.047619047618864</v>
       </c>
       <c r="D5" t="n">
-        <v>-16.93967221757178</v>
+        <v>-1.075068126336351</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.885714285713611</v>
+        <v>-1.942857142857647</v>
       </c>
       <c r="C6" t="n">
-        <v>-20.66793893130217</v>
+        <v>-0.9523809523807873</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.63692512865157</v>
+        <v>-1.012634627188845</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.664122137405365</v>
+        <v>-1.98473282442791</v>
       </c>
       <c r="C7" t="n">
-        <v>-27.34732824428069</v>
+        <v>-0.9523809523807873</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.68539019989602</v>
+        <v>-1.063284455725187</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.466666666669069</v>
+        <v>-2.270992366412702</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.73664122137765</v>
+        <v>-0.9714285714284028</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.643188265051121</v>
+        <v>-1.197607376031317</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.282442748092307</v>
+        <v>-2.519083969465099</v>
       </c>
       <c r="C9" t="n">
-        <v>-23.96946564886011</v>
+        <v>-0.9695817490493086</v>
       </c>
       <c r="D9" t="n">
-        <v>-12.56516117550911</v>
+        <v>-1.321137678244907</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.263358778626658</v>
+        <v>-2.557251908396387</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.95801526717836</v>
+        <v>-0.9695817490493086</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.985425096966886</v>
+        <v>-1.359717670043325</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.737642585552166</v>
+        <v>-2.419047619048247</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.29523809523614</v>
+        <v>-0.9505703422052015</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.934219231846233</v>
+        <v>-1.684527219862337</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.262357414449353</v>
+        <v>-3.384030418251982</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.5047619047606</v>
+        <v>-0.9695817490493086</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.012937672498502</v>
+        <v>-1.842631061601864</v>
       </c>
       <c r="E12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.118320610685639</v>
+        <v>-3.561904761905683</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.664122137406443</v>
+        <v>-1.009523809523637</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.721842766830131</v>
+        <v>-2.100879875710806</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.276190476190258</v>
+        <v>-3.619047619046993</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.942748091599827</v>
+        <v>-1.085714285714098</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.93823323063149</v>
+        <v>-2.449344170021586</v>
       </c>
       <c r="E14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.164122137403819</v>
+        <v>-4.942748091599827</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.912547528518909</v>
+        <v>-1.276190476190258</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.395689920589239</v>
+        <v>-2.93823323063149</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.085714285714098</v>
+        <v>-5.912547528518909</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.619047619046993</v>
+        <v>-1.164122137403819</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.449344170021586</v>
+        <v>-3.395689920589239</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.047619047618864</v>
+        <v>-7.5047619047606</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.108986615678965</v>
+        <v>-2.262357414449353</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.075068126336351</v>
+        <v>-4.012937672498502</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.028571428571472</v>
+        <v>-8.664122137406443</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.032504780114897</v>
+        <v>-2.118320610685639</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.030929187578592</v>
+        <v>-4.721842766830131</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.028571428571252</v>
+        <v>-11.29523809523614</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.089866156787949</v>
+        <v>-2.737642585552166</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.059162244495819</v>
+        <v>-5.934219231846233</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.009523809523637</v>
+        <v>-12.95801526717836</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.561904761905683</v>
+        <v>-3.263358778626658</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.100879875710806</v>
+        <v>-6.985425096966886</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-16.73664122137765</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.270992366412702</v>
+        <v>-3.466666666669069</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.197607376031317</v>
+        <v>-8.643188265051121</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-20.66793893130217</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.384030418251982</v>
+        <v>-3.885714285713611</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.842631061601864</v>
+        <v>-10.63692512865157</v>
       </c>
       <c r="E22" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-23.96946564886011</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.557251908396387</v>
+        <v>-3.282442748092307</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.359717670043325</v>
+        <v>-12.56516117550911</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-27.34732824428069</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.519083969465099</v>
+        <v>-3.664122137405365</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.321137678244907</v>
+        <v>-14.68539019989602</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9523809523809936</v>
+        <v>-30.07633587786908</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.01145038167939</v>
+        <v>-4.980916030535422</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.9704273313838568</v>
+        <v>-16.93967221757178</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-34.16030534351881</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.98473282442791</v>
+        <v>-5.801526717558499</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.063284455725187</v>
+        <v>-19.15131276567346</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-36.62857142856509</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.942857142857647</v>
+        <v>-5.267175572520213</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.012634627188845</v>
+        <v>-21.36224756113174</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.9505703422052015</v>
+        <v>-40.15267175573382</v>
       </c>
       <c r="C28" t="n">
-        <v>-2.419047619048247</v>
+        <v>-5.458015267176746</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.684527219862337</v>
+        <v>-23.66749440151495</v>
       </c>
       <c r="E28" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data/Max_vel_rolling_win.xlsx
+++ b/data/Max_vel_rolling_win.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,67 +463,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9942638623327025</v>
+        <v>4.618320610687022</v>
       </c>
       <c r="C2" t="n">
-        <v>0.990476190476179</v>
+        <v>0.7265774378585088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9923685807281595</v>
+        <v>2.781154040977246</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1.032504780114785</v>
+        <v>5.744274809160295</v>
       </c>
       <c r="C3" t="n">
-        <v>1.02857142857136</v>
+        <v>3.257142857142998</v>
       </c>
       <c r="D3" t="n">
-        <v>1.030732895321225</v>
+        <v>4.194408167985425</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1.316793893129771</v>
+        <v>5.935114503816783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8761904761905157</v>
+        <v>0.2676864244741887</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9941924820663282</v>
+        <v>3.290260517574471</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1.089866156787712</v>
+        <v>6.252390057361763</v>
       </c>
       <c r="C5" t="n">
-        <v>1.085714285714333</v>
+        <v>0.01908396946564841</v>
       </c>
       <c r="D5" t="n">
-        <v>1.088047237124959</v>
+        <v>3.20829019160504</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -531,118 +531,118 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.48854961832061</v>
+        <v>7.227533460802719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2095238095238175</v>
+        <v>0.9351145038167927</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8386683132085625</v>
+        <v>3.503826716236682</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.994263862332868</v>
+        <v>7.328244274809149</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9714285714286097</v>
+        <v>0.07633587786259535</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9831050103108815</v>
+        <v>4.370684943350987</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1.759082217973528</v>
+        <v>8.247619047617619</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2095238095237721</v>
+        <v>0.2099236641221826</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7657348327359562</v>
+        <v>4.880758046025216</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9" t="n">
-        <v>3.778625954199287</v>
+        <v>8.419047619046161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1904761904761602</v>
+        <v>0.2285714285713888</v>
       </c>
       <c r="D9" t="n">
-        <v>1.092172975609332</v>
+        <v>5.313969745267372</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5.419847328243089</v>
+        <v>8.511450381679376</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07633587786261362</v>
+        <v>1.412213740458013</v>
       </c>
       <c r="D10" t="n">
-        <v>1.600190863616393</v>
+        <v>3.718439464854242</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>4.847328244273751</v>
+        <v>9.198473282442732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2851711026615578</v>
+        <v>0.5714285714284729</v>
       </c>
       <c r="D11" t="n">
-        <v>1.341955299275055</v>
+        <v>3.72405744873746</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>3.771428571429549</v>
+        <v>9.713740458013142</v>
       </c>
       <c r="C12" t="n">
-        <v>1.026615969581619</v>
+        <v>0.4007633587787122</v>
       </c>
       <c r="D12" t="n">
-        <v>1.539123348388735</v>
+        <v>5.387802356217249</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -650,16 +650,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.01908396946455</v>
+        <v>9.86666666666923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1520912547528324</v>
+        <v>1.068702290076565</v>
       </c>
       <c r="D13" t="n">
-        <v>1.699871239943918</v>
+        <v>5.946848698375364</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -667,16 +667,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.53333333333255</v>
+        <v>10.68702290076566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1142857142856988</v>
+        <v>2.97709923664057</v>
       </c>
       <c r="D14" t="n">
-        <v>1.833719310170332</v>
+        <v>6.009160305343513</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -684,16 +684,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.687022900764584</v>
+        <v>13.32061068702577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03816793893128855</v>
+        <v>2.266666666666274</v>
       </c>
       <c r="D15" t="n">
-        <v>2.313961830620106</v>
+        <v>7.157481195649282</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -701,50 +701,50 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.763358778627194</v>
+        <v>16.15238095238515</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1335877862595133</v>
+        <v>1.622137404580502</v>
       </c>
       <c r="D16" t="n">
-        <v>2.131166754432855</v>
+        <v>6.591495194436221</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.780952380955694</v>
+        <v>16.71755725191199</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09541984732826617</v>
+        <v>6.076190476189423</v>
       </c>
       <c r="D17" t="n">
-        <v>1.915448977510558</v>
+        <v>9.563996016658047</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>4.838095238094398</v>
+        <v>16.91428571428279</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01901140684409541</v>
+        <v>5.171755725189708</v>
       </c>
       <c r="D18" t="n">
-        <v>1.995812102393927</v>
+        <v>9.147196823532528</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -752,16 +752,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.61068702290197</v>
+        <v>21.43129770992827</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01904761904761534</v>
+        <v>3.377862595420575</v>
       </c>
       <c r="D19" t="n">
-        <v>2.192534156372292</v>
+        <v>9.934140032994135</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -769,16 +769,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.736641221375494</v>
+        <v>27.08015267176156</v>
       </c>
       <c r="C20" t="n">
-        <v>0.114285714285692</v>
+        <v>4.038095238094539</v>
       </c>
       <c r="D20" t="n">
-        <v>2.802172488175677</v>
+        <v>11.74841735872382</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -786,16 +786,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.488549618322008</v>
+        <v>30.83809523808989</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4007633587787138</v>
+        <v>4.914285714284863</v>
       </c>
       <c r="D21" t="n">
-        <v>3.407130711937474</v>
+        <v>12.16055400609487</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -803,16 +803,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.225190839696428</v>
+        <v>32.90076335878571</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3428571428570829</v>
+        <v>5.066666666665788</v>
       </c>
       <c r="D22" t="n">
-        <v>3.839211925533833</v>
+        <v>15.86230670035292</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -820,16 +820,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.733333333331647</v>
+        <v>37.44761904761256</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3238095238094676</v>
+        <v>7.232824427476195</v>
       </c>
       <c r="D23" t="n">
-        <v>4.626444793061838</v>
+        <v>17.68122361099299</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -837,16 +837,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17.53816793893507</v>
+        <v>40.59160305340863</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9523809523807873</v>
+        <v>5.267175572520218</v>
       </c>
       <c r="D24" t="n">
-        <v>6.469607320829367</v>
+        <v>18.18870081437139</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -854,16 +854,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>18.22519083969858</v>
+        <v>44.26666666665898</v>
       </c>
       <c r="C25" t="n">
-        <v>2.133333333332962</v>
+        <v>6.285714285713197</v>
       </c>
       <c r="D25" t="n">
-        <v>7.46418492449012</v>
+        <v>20.0355884573417</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -871,16 +871,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>19.42857142856806</v>
+        <v>50.43893129772078</v>
       </c>
       <c r="C26" t="n">
-        <v>1.619047619047338</v>
+        <v>7.219047619052621</v>
       </c>
       <c r="D26" t="n">
-        <v>8.966070740116542</v>
+        <v>22.238363289205</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -888,16 +888,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>26.10687022901325</v>
+        <v>53.81679389309464</v>
       </c>
       <c r="C27" t="n">
-        <v>2.232824427481396</v>
+        <v>6.469465648856355</v>
       </c>
       <c r="D27" t="n">
-        <v>11.62571393557066</v>
+        <v>25.3121983614332</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -905,16 +905,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>32.13740458015958</v>
+        <v>59.35238095242207</v>
       </c>
       <c r="C28" t="n">
-        <v>3.015267175570552</v>
+        <v>7.142857142855905</v>
       </c>
       <c r="D28" t="n">
-        <v>13.06380552982901</v>
+        <v>26.87185949771344</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -922,16 +922,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>33.19999999999425</v>
+        <v>67.2137404579714</v>
       </c>
       <c r="C29" t="n">
-        <v>2.328244274809661</v>
+        <v>8.015267175574245</v>
       </c>
       <c r="D29" t="n">
-        <v>14.87359899168797</v>
+        <v>29.81563906830841</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -939,16 +939,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38.11068702287589</v>
+        <v>70.13333333332119</v>
       </c>
       <c r="C30" t="n">
-        <v>3.28244274808946</v>
+        <v>11.12595419847568</v>
       </c>
       <c r="D30" t="n">
-        <v>17.8829651319536</v>
+        <v>31.70703018041458</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -956,16 +956,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>43.27619047618298</v>
+        <v>79.14285714284343</v>
       </c>
       <c r="C31" t="n">
-        <v>4.44656488549714</v>
+        <v>9.561068702283837</v>
       </c>
       <c r="D31" t="n">
-        <v>20.92956386534689</v>
+        <v>35.6850012582815</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -973,16 +973,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>45.56190476189687</v>
+        <v>84.50381679391131</v>
       </c>
       <c r="C32" t="n">
-        <v>4.713740458016281</v>
+        <v>7.561904761903452</v>
       </c>
       <c r="D32" t="n">
-        <v>22.46776598933501</v>
+        <v>39.2769421239464</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -990,16 +990,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>49.58095238098674</v>
+        <v>93.54285714284093</v>
       </c>
       <c r="C33" t="n">
-        <v>4.561068702287099</v>
+        <v>8.492366412208199</v>
       </c>
       <c r="D33" t="n">
-        <v>24.15804955903518</v>
+        <v>41.82361379078173</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1007,16 +1007,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>50.49618320607392</v>
+        <v>98.8740458016338</v>
       </c>
       <c r="C34" t="n">
-        <v>5.24809160305001</v>
+        <v>9.676190476197181</v>
       </c>
       <c r="D34" t="n">
-        <v>26.79009633300577</v>
+        <v>47.36015434946773</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1024,16 +1024,67 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>54.88593155895206</v>
+        <v>105.9541984733972</v>
       </c>
       <c r="C35" t="n">
-        <v>4.160305343508735</v>
+        <v>12.02290076335093</v>
       </c>
       <c r="D35" t="n">
-        <v>29.38207403215869</v>
+        <v>49.92027568161695</v>
       </c>
       <c r="E35" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>110.114503816722</v>
+      </c>
+      <c r="C36" t="n">
+        <v>10.34351145037493</v>
+      </c>
+      <c r="D36" t="n">
+        <v>53.8610042464766</v>
+      </c>
+      <c r="E36" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>117.5572519085243</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12.68571428572308</v>
+      </c>
+      <c r="D37" t="n">
+        <v>56.15618236725505</v>
+      </c>
+      <c r="E37" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>119.4095238096066</v>
+      </c>
+      <c r="C38" t="n">
+        <v>14.02671755724275</v>
+      </c>
+      <c r="D38" t="n">
+        <v>60.99205743366201</v>
+      </c>
+      <c r="E38" t="n">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,19 +1130,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0707456978967</v>
+        <v>3.881453154875537</v>
       </c>
       <c r="C2" t="n">
-        <v>1.066666666666714</v>
+        <v>0.6309751434034122</v>
       </c>
       <c r="D2" t="n">
-        <v>1.069111750081482</v>
+        <v>2.226640271847022</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1099,101 +1150,101 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9942638623326485</v>
+        <v>3.900573613766761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9904761904761253</v>
+        <v>0.4389312977099203</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9923678578900083</v>
+        <v>2.116700781383396</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1.147227533460748</v>
+        <v>4.359464627150848</v>
       </c>
       <c r="C4" t="n">
-        <v>1.009523809523633</v>
+        <v>0.5353728489483484</v>
       </c>
       <c r="D4" t="n">
-        <v>1.03440796925077</v>
+        <v>2.749608148053952</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>1.051625239005917</v>
+        <v>4.474187380496922</v>
       </c>
       <c r="C5" t="n">
-        <v>1.047619047619094</v>
+        <v>1.166347992351762</v>
       </c>
       <c r="D5" t="n">
-        <v>1.050021233370392</v>
+        <v>2.525115981571673</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9751434034418484</v>
+        <v>4.875717017208712</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9523809523809936</v>
+        <v>0.05736137667303624</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9645716488980535</v>
+        <v>2.101915595922573</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>2.543021032505214</v>
+        <v>4.980916030534343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3238095238095377</v>
+        <v>0.1526717557251907</v>
       </c>
       <c r="D7" t="n">
-        <v>1.114944240472264</v>
+        <v>2.411218488485226</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1.108986615678965</v>
+        <v>5.057471264367814</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9714285714284028</v>
+        <v>0.248565965583174</v>
       </c>
       <c r="D8" t="n">
-        <v>1.054194000721428</v>
+        <v>2.147023740719173</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1201,16 +1252,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.164122137404831</v>
+        <v>5.152671755725181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9523809523807873</v>
+        <v>0.7619047619047956</v>
       </c>
       <c r="D9" t="n">
-        <v>1.070997485950635</v>
+        <v>2.604544537388663</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1218,16 +1269,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.434034416826248</v>
+        <v>5.648854961832053</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9904761904764471</v>
+        <v>1.12595419847328</v>
       </c>
       <c r="D10" t="n">
-        <v>1.086880619989793</v>
+        <v>3.10395316276171</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1235,16 +1286,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.232824427481396</v>
+        <v>6.85714285714167</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1904761904761585</v>
+        <v>0.2862595419846692</v>
       </c>
       <c r="D11" t="n">
-        <v>1.424104697720942</v>
+        <v>3.470731543207516</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1252,118 +1303,118 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.571428571429241</v>
+        <v>6.870229007635068</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5714285714284721</v>
+        <v>1.25714285714264</v>
       </c>
       <c r="D12" t="n">
-        <v>1.177073724754339</v>
+        <v>3.888348255503451</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>3.511450381680145</v>
+        <v>9.123809523807942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5714285714287196</v>
+        <v>1.50763358778593</v>
       </c>
       <c r="D13" t="n">
-        <v>1.486278945176572</v>
+        <v>4.464986354024162</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>3.225190839695351</v>
+        <v>9.276190476188869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05725190839696106</v>
+        <v>0.229007633587834</v>
       </c>
       <c r="D14" t="n">
-        <v>1.381682274266786</v>
+        <v>4.354738686366817</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3.587786259542758</v>
+        <v>11.3167938931273</v>
       </c>
       <c r="C15" t="n">
-        <v>0.190476190476241</v>
+        <v>0.6476190476189352</v>
       </c>
       <c r="D15" t="n">
-        <v>1.554745398179067</v>
+        <v>5.906540460838302</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>3.454198473283185</v>
+        <v>11.85114503817049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.914285714286347</v>
+        <v>1.047619047618868</v>
       </c>
       <c r="D16" t="n">
-        <v>1.733931515525733</v>
+        <v>5.663197078343941</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>4.179389312978001</v>
+        <v>13.58778625953901</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07619047619046306</v>
+        <v>2.723809523809051</v>
       </c>
       <c r="D17" t="n">
-        <v>1.909952744456629</v>
+        <v>7.512132193943751</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>4.580152671756712</v>
+        <v>14.29389312977407</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3428571428573799</v>
+        <v>2.767175572519678</v>
       </c>
       <c r="D18" t="n">
-        <v>2.190879736081786</v>
+        <v>7.132135167631431</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1371,16 +1422,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5.591603053431465</v>
+        <v>17.86259541985117</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01904761904763353</v>
+        <v>4.266666666665928</v>
       </c>
       <c r="D19" t="n">
-        <v>2.472966248965313</v>
+        <v>9.069896261500064</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -1388,16 +1439,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.12213740458104</v>
+        <v>21.01145038166568</v>
       </c>
       <c r="C20" t="n">
-        <v>1.045627376426173</v>
+        <v>3.866666666665997</v>
       </c>
       <c r="D20" t="n">
-        <v>2.63852219530391</v>
+        <v>10.36218786244691</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1405,16 +1456,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.297709923665478</v>
+        <v>22.32824427479459</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3625954198474053</v>
+        <v>4.209523809523079</v>
       </c>
       <c r="D21" t="n">
-        <v>3.180650650284733</v>
+        <v>11.00209853759498</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -1422,16 +1473,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.416030534352956</v>
+        <v>25.60000000001774</v>
       </c>
       <c r="C22" t="n">
-        <v>1.085714285715037</v>
+        <v>3.961904761904075</v>
       </c>
       <c r="D22" t="n">
-        <v>3.890806063470306</v>
+        <v>12.80550199565888</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -1439,16 +1490,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>8.664122137406444</v>
+        <v>28.30152671756335</v>
       </c>
       <c r="C23" t="n">
-        <v>1.10687022900787</v>
+        <v>5.314285714284792</v>
       </c>
       <c r="D23" t="n">
-        <v>4.378237665642189</v>
+        <v>13.74002181025132</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -1456,16 +1507,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>10.49618320610913</v>
+        <v>32.72380952380385</v>
       </c>
       <c r="C24" t="n">
-        <v>1.009523809523633</v>
+        <v>4.103053435115387</v>
       </c>
       <c r="D24" t="n">
-        <v>5.187106376049394</v>
+        <v>15.3860306055856</v>
       </c>
       <c r="E24" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -1473,16 +1524,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.39999999999751</v>
+        <v>36.10687022898407</v>
       </c>
       <c r="C25" t="n">
-        <v>1.049618320610002</v>
+        <v>5.009523809522944</v>
       </c>
       <c r="D25" t="n">
-        <v>6.422359596981281</v>
+        <v>16.98651175158267</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -1490,16 +1541,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17.17557251907276</v>
+        <v>39.16190476189797</v>
       </c>
       <c r="C26" t="n">
-        <v>1.542857142856876</v>
+        <v>6.526717557247649</v>
       </c>
       <c r="D26" t="n">
-        <v>7.982604121917263</v>
+        <v>18.95693454128449</v>
       </c>
       <c r="E26" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -1507,16 +1558,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21.58095238094864</v>
+        <v>44.14122137405531</v>
       </c>
       <c r="C27" t="n">
-        <v>1.183206106870486</v>
+        <v>6.507633587787661</v>
       </c>
       <c r="D27" t="n">
-        <v>9.340746799841879</v>
+        <v>21.56902385146827</v>
       </c>
       <c r="E27" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -1524,50 +1575,50 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24.93333333332901</v>
+        <v>50.38167938932382</v>
       </c>
       <c r="C28" t="n">
-        <v>2.838095238094747</v>
+        <v>6.971428571427364</v>
       </c>
       <c r="D28" t="n">
-        <v>11.28887236597177</v>
+        <v>23.3261986095838</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>25.40952380951941</v>
+        <v>54.1904761904668</v>
       </c>
       <c r="C29" t="n">
-        <v>1.542857142856876</v>
+        <v>7.561904761903453</v>
       </c>
       <c r="D29" t="n">
-        <v>13.11557654154484</v>
+        <v>27.2889312977086</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>30.09523809523288</v>
+        <v>54.6666666666572</v>
       </c>
       <c r="C30" t="n">
-        <v>2.304761904761507</v>
+        <v>6.86311787071859</v>
       </c>
       <c r="D30" t="n">
-        <v>14.45907638609617</v>
+        <v>24.85078723799502</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -1575,16 +1626,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>32.87619047618477</v>
+        <v>60.01908396947857</v>
       </c>
       <c r="C31" t="n">
-        <v>2.652671755723459</v>
+        <v>7.690839694658143</v>
       </c>
       <c r="D31" t="n">
-        <v>16.135439542478</v>
+        <v>29.23778891219626</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -1592,16 +1643,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>33.38403041820339</v>
+        <v>62.34732824423412</v>
       </c>
       <c r="C32" t="n">
-        <v>2.361904761906397</v>
+        <v>6.69847328244419</v>
       </c>
       <c r="D32" t="n">
-        <v>17.18551382649747</v>
+        <v>31.51405719784371</v>
       </c>
       <c r="E32" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
@@ -1609,16 +1660,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>37.84351145035698</v>
+        <v>68.26335877864065</v>
       </c>
       <c r="C33" t="n">
-        <v>2.232824427479459</v>
+        <v>7.919847328239107</v>
       </c>
       <c r="D33" t="n">
-        <v>20.35212485972905</v>
+        <v>33.51210457756878</v>
       </c>
       <c r="E33" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
@@ -1626,16 +1677,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.15238095233923</v>
+        <v>71.10476190474958</v>
       </c>
       <c r="C34" t="n">
-        <v>2.748091603051641</v>
+        <v>8.75954198473471</v>
       </c>
       <c r="D34" t="n">
-        <v>21.84944097463124</v>
+        <v>35.98106702458169</v>
       </c>
       <c r="E34" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -1643,16 +1694,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>42.76717557249117</v>
+        <v>75.89694656483597</v>
       </c>
       <c r="C35" t="n">
-        <v>3.714285714281854</v>
+        <v>9.009523809530053</v>
       </c>
       <c r="D35" t="n">
-        <v>23.14021774608334</v>
+        <v>38.72195979892438</v>
       </c>
       <c r="E35" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -1660,16 +1711,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>43.20000000002994</v>
+        <v>78.47328244269688</v>
       </c>
       <c r="C36" t="n">
-        <v>3.206106870226913</v>
+        <v>8.87619047618125</v>
       </c>
       <c r="D36" t="n">
-        <v>24.2662668120683</v>
+        <v>41.27659592315548</v>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -1677,16 +1728,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.14285714289119</v>
+        <v>83.9047619046747</v>
       </c>
       <c r="C37" t="n">
-        <v>3.549618320614532</v>
+        <v>8.571428571419663</v>
       </c>
       <c r="D37" t="n">
-        <v>26.97531384852124</v>
+        <v>44.74171719204163</v>
       </c>
       <c r="E37" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1694,16 +1745,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>50.91603053431792</v>
+        <v>86.38095238101224</v>
       </c>
       <c r="C38" t="n">
-        <v>3.988549618318007</v>
+        <v>9.580152671749472</v>
       </c>
       <c r="D38" t="n">
-        <v>28.91466870880734</v>
+        <v>48.03054973017203</v>
       </c>
       <c r="E38" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39">
@@ -1711,16 +1762,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>53.30152671752248</v>
+        <v>88.36190476181292</v>
       </c>
       <c r="C39" t="n">
-        <v>4.647619047614217</v>
+        <v>11.10687022900039</v>
       </c>
       <c r="D39" t="n">
-        <v>30.68067746180614</v>
+        <v>49.95033694041352</v>
       </c>
       <c r="E39" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
@@ -1728,16 +1779,84 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>57.27619047613094</v>
+        <v>92.7480916029929</v>
       </c>
       <c r="C40" t="n">
-        <v>4.9809160305311</v>
+        <v>10.85877862596596</v>
       </c>
       <c r="D40" t="n">
-        <v>32.62799000474861</v>
+        <v>53.51114144033819</v>
       </c>
       <c r="E40" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>95.85877862605803</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.484732824421291</v>
+      </c>
+      <c r="D41" t="n">
+        <v>57.20779751020252</v>
+      </c>
+      <c r="E41" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>101.1450381678729</v>
+      </c>
+      <c r="C42" t="n">
+        <v>9.923664122130928</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60.96156753442331</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>106.3358778627106</v>
+      </c>
+      <c r="C43" t="n">
+        <v>11.64122137405841</v>
+      </c>
+      <c r="D43" t="n">
+        <v>64.85884632979939</v>
+      </c>
+      <c r="E43" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>112.1183206106139</v>
+      </c>
+      <c r="C44" t="n">
+        <v>11.90476190477015</v>
+      </c>
+      <c r="D44" t="n">
+        <v>67.92198569820201</v>
+      </c>
+      <c r="E44" t="n">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1751,7 +1870,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1783,53 +1902,53 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.9942638623327025</v>
+        <v>-3.759541984732819</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.990476190476179</v>
+        <v>-1.028571428571416</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9925576029019101</v>
+        <v>-2.527276187631886</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.166347992351887</v>
+        <v>-4.274809160305336</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.190476190476198</v>
+        <v>-1.19999999999992</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8721019021068758</v>
+        <v>-2.630252666706347</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.089866156787831</v>
+        <v>-4.397705544933082</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01904761904761947</v>
+        <v>-1.032504780114722</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7482930594332864</v>
+        <v>-2.619162286732675</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1837,33 +1956,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.032504780114676</v>
+        <v>-4.427480916030524</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-1.371428571428629</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.002286813138696</v>
+        <v>-2.924990947147329</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.108986615678724</v>
+        <v>-5.133587786259532</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9904761904762326</v>
+        <v>-2.347328244274806</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.049914649496472</v>
+        <v>-3.510616714594749</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1871,50 +1990,50 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.128107074569982</v>
+        <v>-5.324427480916023</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9732824427480895</v>
+        <v>-2.057142857142501</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.065458633721104</v>
+        <v>-3.22453853238771</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.108986615678965</v>
+        <v>-5.725190839694647</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-2.09923664122137</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.051096519261675</v>
+        <v>-3.891333041617972</v>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.9923664122139533</v>
+        <v>-5.896946564885486</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-2.476190476190313</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9725399221115153</v>
+        <v>-3.367855390267998</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -1922,16 +2041,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.16412213740483</v>
+        <v>-6.501901140683582</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9714285714288269</v>
+        <v>-3.066666666666798</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.074232400339288</v>
+        <v>-4.292166676288533</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -1939,16 +2058,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.076190476190116</v>
+        <v>-6.666666666665509</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-2.958015267176207</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.051791536572232</v>
+        <v>-4.520091765933921</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1956,16 +2075,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.374045801527014</v>
+        <v>-7.28136882129184</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.009523809523633</v>
+        <v>-2.55238095238051</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.171241076916405</v>
+        <v>-4.797312328341555</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1973,16 +2092,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.442748091603578</v>
+        <v>-8.721374045799619</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.083650190114399</v>
+        <v>-2.91428571428647</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.368995101762122</v>
+        <v>-5.296541171074656</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1990,16 +2109,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.94285714285646</v>
+        <v>-9.199999999998409</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2095238095238629</v>
+        <v>-3.269961977185895</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.427988366861006</v>
+        <v>-5.696042461200667</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2007,16 +2126,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.404580152672276</v>
+        <v>-10.70342205323519</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-3.802281368820806</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.453807376657982</v>
+        <v>-6.254330298036276</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2024,16 +2143,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.225190839693953</v>
+        <v>-12.76717557252183</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9505703422052015</v>
+        <v>-4.67680608364959</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.602962680829822</v>
+        <v>-7.307628856597166</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2041,16 +2160,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.091603053433095</v>
+        <v>-15.2480916030501</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7428571428576587</v>
+        <v>-4.819047619046787</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.661732487077744</v>
+        <v>-7.860062133804466</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2058,16 +2177,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.034351145038821</v>
+        <v>-18.1714285714333</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9695817490497243</v>
+        <v>-4.201520912548808</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.965857709662284</v>
+        <v>-8.852016810287475</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2075,16 +2194,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.904761904764612</v>
+        <v>-19.75190839695081</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9695817490488827</v>
+        <v>-4.923954372625072</v>
       </c>
       <c r="D19" t="n">
-        <v>-2.189328251897647</v>
+        <v>-9.579424504519919</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2211,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.895238095237247</v>
+        <v>-22.28571428571042</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.9714285714284061</v>
+        <v>-4.923664122138464</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.649917115266915</v>
+        <v>-10.83019423179748</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2109,16 +2228,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-6.412213740459395</v>
+        <v>-28.057142857138</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.14503816793918</v>
+        <v>-5.752380952379955</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.164673632175757</v>
+        <v>-12.07053184095748</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -2126,16 +2245,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.900763358780328</v>
+        <v>-28.40000000001967</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.847619047618725</v>
+        <v>-5.847619047618035</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.764531740314694</v>
+        <v>-13.12278336075754</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -2143,16 +2262,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-10.36190476191194</v>
+        <v>-32.19047619047062</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.085714285714098</v>
+        <v>-5.295238095241763</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.499422391061787</v>
+        <v>-14.55239213712396</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2160,16 +2279,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-13.75238095237857</v>
+        <v>-36.45038167939716</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.171428571428196</v>
+        <v>-5.418250950571994</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.420030353583356</v>
+        <v>-16.16402034241334</v>
       </c>
       <c r="E24" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -2177,16 +2296,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-15.03816793893454</v>
+        <v>-40.89523809523101</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.129277566538733</v>
+        <v>-6.393129770988193</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.543559006646225</v>
+        <v>-18.12034068496141</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -2194,16 +2313,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-16.96564885496548</v>
+        <v>-44.38931297710879</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.55238095238051</v>
+        <v>-5.752380952379959</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.844860532965928</v>
+        <v>-19.83506779794057</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2211,16 +2330,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-18.28897338403599</v>
+        <v>-48.133333333325</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.514285714285279</v>
+        <v>-7.885714285712921</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.154976859748473</v>
+        <v>-21.70011663179175</v>
       </c>
       <c r="E27" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -2228,16 +2347,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-20.82061068702738</v>
+        <v>-50.79847908746792</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.466666666666067</v>
+        <v>-8.628571428569932</v>
       </c>
       <c r="D28" t="n">
-        <v>-10.67155302522469</v>
+        <v>-23.64309725337012</v>
       </c>
       <c r="E28" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -2245,16 +2364,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-24.26666666666247</v>
+        <v>-55.77142857141891</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.304761904763503</v>
+        <v>-7.870722433462472</v>
       </c>
       <c r="D29" t="n">
-        <v>-12.07831757457453</v>
+        <v>-25.56003351808191</v>
       </c>
       <c r="E29" t="n">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -2262,16 +2381,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-26.18320610685313</v>
+        <v>-58.45714285713272</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.971428571428061</v>
+        <v>-5.209923664123256</v>
       </c>
       <c r="D30" t="n">
-        <v>-13.59750289716494</v>
+        <v>-27.52282903002284</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31">
@@ -2279,16 +2398,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-30.51526717557908</v>
+        <v>-62.17557251904341</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.885714285713611</v>
+        <v>-9.14122137404777</v>
       </c>
       <c r="D31" t="n">
-        <v>-16.0117249427239</v>
+        <v>-30.09799353985255</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32">
@@ -2296,50 +2415,50 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-34.1984732824501</v>
+        <v>-67.06106870230451</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.504761904761297</v>
+        <v>-7.504761904760607</v>
       </c>
       <c r="D32" t="n">
-        <v>-18.44458608500682</v>
+        <v>-31.82131697915357</v>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>-36.04961832061844</v>
+        <v>-71.52380952379713</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.076190476189771</v>
+        <v>-9.293893129772995</v>
       </c>
       <c r="D33" t="n">
-        <v>-20.07461468829142</v>
+        <v>-36.95589735296951</v>
       </c>
       <c r="E33" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" t="n">
-        <v>-38.35877862599575</v>
+        <v>-71.79389312978644</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.809523809526449</v>
+        <v>-9.257142857141252</v>
       </c>
       <c r="D34" t="n">
-        <v>-21.59284212354656</v>
+        <v>-34.65028545018771</v>
       </c>
       <c r="E34" t="n">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35">
@@ -2347,16 +2466,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-40.11450381676771</v>
+        <v>-77.33333333338692</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.590476190471419</v>
+        <v>-10.99047619048381</v>
       </c>
       <c r="D35" t="n">
-        <v>-22.61667359833324</v>
+        <v>-39.82206773915333</v>
       </c>
       <c r="E35" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
@@ -2364,16 +2483,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-41.75238095240989</v>
+        <v>-79.08571428563208</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.447619047615462</v>
+        <v>-10.49618320610002</v>
       </c>
       <c r="D36" t="n">
-        <v>-23.83111657979833</v>
+        <v>-41.36639012599206</v>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
@@ -2381,16 +2500,84 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-45.24809160302391</v>
+        <v>-80.43809523815098</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.676190476186655</v>
+        <v>-8.87619047618125</v>
       </c>
       <c r="D37" t="n">
-        <v>-26.09359335125972</v>
+        <v>-43.83626183847018</v>
       </c>
       <c r="E37" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-84.50570342207894</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-11.67619047617834</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-46.53865053617871</v>
+      </c>
+      <c r="E38" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-85.52380952372062</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.05714285714982</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-48.89841616795152</v>
+      </c>
+      <c r="E39" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-88.74524714831597</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.30476190474912</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-51.80866220148633</v>
+      </c>
+      <c r="E40" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-91.41221374055701</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-10.91428571429328</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-52.16816471300389</v>
+      </c>
+      <c r="E41" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2439,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.01145038167939</v>
+        <v>-4.435946462715108</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9523809523809936</v>
+        <v>-2.08413001912046</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.9704273313838568</v>
+        <v>-3.333536115629296</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -2456,101 +2643,101 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.032504780114897</v>
+        <v>-5.019083969465641</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.028571428571472</v>
+        <v>-1.946564885496179</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.030929187578592</v>
+        <v>-3.456824025108143</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.089866156787949</v>
+        <v>-5.190839694656478</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.028571428571252</v>
+        <v>-2.156488549618315</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.059162244495819</v>
+        <v>-4.394481726924479</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.108986615678965</v>
+        <v>-5.534351145038159</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.047619047618864</v>
+        <v>-2.471482889733792</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.075068126336351</v>
+        <v>-4.060414663571317</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.942857142857647</v>
+        <v>-6.545801526717552</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-2.476190476190582</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.012634627188845</v>
+        <v>-4.704360660090218</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.98473282442791</v>
+        <v>-6.698473282442733</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.9523809523807873</v>
+        <v>-4.332061068702282</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.063284455725187</v>
+        <v>-5.523763656735503</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.270992366412702</v>
+        <v>-7.156488549618309</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9714285714284028</v>
+        <v>-3.358778625954192</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.197607376031317</v>
+        <v>-4.496899855747836</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -2558,16 +2745,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.519083969465099</v>
+        <v>-8.015267175572504</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-4.351145038167934</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.321137678244907</v>
+        <v>-5.699889590751198</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -2575,16 +2762,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.557251908396387</v>
+        <v>-9.028571428569862</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-3.65714285714222</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.359717670043325</v>
+        <v>-6.185727176875972</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -2592,16 +2779,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.419047619048247</v>
+        <v>-11.08778625953956</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9505703422052015</v>
+        <v>-4.809885931558319</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.684527219862337</v>
+        <v>-7.05827720494942</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -2609,16 +2796,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.384030418251982</v>
+        <v>-12.15648854961566</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9695817490493086</v>
+        <v>-5.104761904761016</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.842631061601864</v>
+        <v>-7.557451920751196</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -2626,16 +2813,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.561904761905683</v>
+        <v>-13.11068702289789</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.009523809523637</v>
+        <v>-5.646387832701336</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.100879875710806</v>
+        <v>-8.238921883175003</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -2643,16 +2830,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.619047619046993</v>
+        <v>-14.1984732824458</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.085714285714098</v>
+        <v>-6.076190476189419</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.449344170021586</v>
+        <v>-8.766697786196818</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2660,16 +2847,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-4.942748091599827</v>
+        <v>-16.53333333333763</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.276190476190258</v>
+        <v>-5.942857142858689</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.93823323063149</v>
+        <v>-9.882202276095541</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -2677,16 +2864,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.912547528518909</v>
+        <v>-19.3511450381637</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.164122137403819</v>
+        <v>-6.190476190475118</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.395689920589239</v>
+        <v>-11.14842434918744</v>
       </c>
       <c r="E16" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2694,16 +2881,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-7.5047619047606</v>
+        <v>-23.8549618320662</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.262357414449353</v>
+        <v>-5.969581749048667</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.012937672498502</v>
+        <v>-12.5937507953981</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2711,16 +2898,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.664122137406443</v>
+        <v>-29.44761904761395</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.118320610685639</v>
+        <v>-6.596958174901245</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.721842766830131</v>
+        <v>-14.88431543253488</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2728,16 +2915,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-11.29523809523614</v>
+        <v>-33.39694656489269</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.737642585552166</v>
+        <v>-6.908396946566374</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.934219231846233</v>
+        <v>-16.701935891003</v>
       </c>
       <c r="E19" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
@@ -2745,16 +2932,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-12.95801526717836</v>
+        <v>-36.51428571427939</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.263358778626658</v>
+        <v>-6.908396946566367</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.985425096966886</v>
+        <v>-17.89003016159693</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -2762,16 +2949,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-16.73664122137765</v>
+        <v>-39.39047619046936</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.466666666669069</v>
+        <v>-8.057142857141462</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.643188265051121</v>
+        <v>-20.22896149651825</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
@@ -2779,16 +2966,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-20.66793893130217</v>
+        <v>-45.87786259542972</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.885714285713611</v>
+        <v>-9.428571428569795</v>
       </c>
       <c r="D22" t="n">
-        <v>-10.63692512865157</v>
+        <v>-22.97883566814953</v>
       </c>
       <c r="E22" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
@@ -2796,16 +2983,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-23.96946564886011</v>
+        <v>-49.65648854958591</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.282442748092307</v>
+        <v>-9.429657794679677</v>
       </c>
       <c r="D23" t="n">
-        <v>-12.56516117550911</v>
+        <v>-25.0329494159295</v>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -2813,16 +3000,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-27.34732824428069</v>
+        <v>-52.36641221375174</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.664122137405365</v>
+        <v>-9.180952380958743</v>
       </c>
       <c r="D24" t="n">
-        <v>-14.68539019989602</v>
+        <v>-27.13907534913163</v>
       </c>
       <c r="E24" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -2830,16 +3017,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-30.07633587786908</v>
+        <v>-56.85114503818019</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.980916030535422</v>
+        <v>-9.31428571429217</v>
       </c>
       <c r="D25" t="n">
-        <v>-16.93967221757178</v>
+        <v>-28.94505659299875</v>
       </c>
       <c r="E25" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26">
@@ -2847,16 +3034,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-34.16030534351881</v>
+        <v>-61.33587786260862</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.801526717558499</v>
+        <v>-11.04761904761713</v>
       </c>
       <c r="D26" t="n">
-        <v>-19.15131276567346</v>
+        <v>-31.87546906020096</v>
       </c>
       <c r="E26" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27">
@@ -2864,16 +3051,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-36.62857142856509</v>
+        <v>-66.43129770993797</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.267175572520213</v>
+        <v>-11.33587786259785</v>
       </c>
       <c r="D27" t="n">
-        <v>-21.36224756113174</v>
+        <v>-34.97848957900193</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -2881,16 +3068,67 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-40.15267175573382</v>
+        <v>-71.21904761903527</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.458015267176746</v>
+        <v>-10.43893129770311</v>
       </c>
       <c r="D28" t="n">
-        <v>-23.66749440151495</v>
+        <v>-37.39949758491087</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-76.26666666671952</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-11.48854961832308</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-40.39725569228722</v>
+      </c>
+      <c r="E29" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-81.41221374047554</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-11.63498098858664</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-45.73513506056945</v>
+      </c>
+      <c r="E30" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-88.1679389313167</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-12.14828897337723</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-48.96618288396554</v>
+      </c>
+      <c r="E31" t="n">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
